--- a/Data/Cost_estimation.xlsx
+++ b/Data/Cost_estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s168027\Documents\GitHub\Brabant-systeem-integratie-model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5009034D-622A-44B6-83F2-FC665DB4C9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B263558-3583-48E2-B0D1-DAB306B583D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="7" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
+    <workbookView xWindow="7200" yWindow="1320" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="7" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
   </bookViews>
   <sheets>
     <sheet name="Inhouse heat systems" sheetId="1" r:id="rId1"/>
@@ -1599,10 +1599,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1728,11 +1737,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87176E8-27CD-4C0C-9908-8DFDF47D66DD}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/Data/Cost_estimation.xlsx
+++ b/Data/Cost_estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s168027\Documents\GitHub\Brabant-systeem-integratie-model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B263558-3583-48E2-B0D1-DAB306B583D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E318F18-CCAE-4D45-8C30-A744BE3F3F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1320" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="7" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
   </bookViews>
   <sheets>
     <sheet name="Inhouse heat systems" sheetId="1" r:id="rId1"/>
@@ -697,7 +697,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>97022.272727272721</v>
+        <v>97.022272727272707</v>
       </c>
       <c r="G5" t="s">
         <v>48</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>97022.272727272721</v>
+        <v>97.022272727272707</v>
       </c>
       <c r="G6" t="s">
         <v>48</v>
@@ -1738,7 +1738,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
